--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.674406333333333</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H2">
-        <v>14.023219</v>
+        <v>0.244216</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N2">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q2">
-        <v>0.7390797341759999</v>
+        <v>0.05038379593333334</v>
       </c>
       <c r="R2">
-        <v>6.651717607584</v>
+        <v>0.4534541634</v>
       </c>
       <c r="S2">
-        <v>0.01629742442243621</v>
+        <v>0.01087917608654786</v>
       </c>
       <c r="T2">
-        <v>0.01629742442243621</v>
+        <v>0.01087917608654786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.674406333333333</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H3">
-        <v>14.023219</v>
+        <v>0.244216</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.216364</v>
       </c>
       <c r="O3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q3">
-        <v>23.70915608396844</v>
+        <v>0.412897727847111</v>
       </c>
       <c r="R3">
-        <v>213.382404755716</v>
+        <v>3.716079550623999</v>
       </c>
       <c r="S3">
-        <v>0.5228098695318911</v>
+        <v>0.08915539220045923</v>
       </c>
       <c r="T3">
-        <v>0.5228098695318911</v>
+        <v>0.08915539220045923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.674406333333333</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H4">
-        <v>14.023219</v>
+        <v>0.244216</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N4">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q4">
-        <v>0.04905322006199998</v>
+        <v>0.0009936877688888888</v>
       </c>
       <c r="R4">
-        <v>0.4414789805579999</v>
+        <v>0.008943189919999999</v>
       </c>
       <c r="S4">
-        <v>0.001081671042609325</v>
+        <v>0.0002145631152344159</v>
       </c>
       <c r="T4">
-        <v>0.001081671042609325</v>
+        <v>0.0002145631152344159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.674406333333333</v>
+        <v>0.08140533333333333</v>
       </c>
       <c r="H5">
-        <v>14.023219</v>
+        <v>0.244216</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1131514935296598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N5">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q5">
-        <v>20.85219165387945</v>
+        <v>0.05975360407022222</v>
       </c>
       <c r="R5">
-        <v>187.669724884915</v>
+        <v>0.537782436632</v>
       </c>
       <c r="S5">
-        <v>0.4598110350030633</v>
+        <v>0.01290236212741827</v>
       </c>
       <c r="T5">
-        <v>0.4598110350030633</v>
+        <v>0.01290236212741827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.914094</v>
+      </c>
+      <c r="I6">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J6">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6189250000000001</v>
+      </c>
+      <c r="N6">
+        <v>1.856775</v>
+      </c>
+      <c r="O6">
+        <v>0.09614699503454774</v>
+      </c>
+      <c r="P6">
+        <v>0.09614699503454775</v>
+      </c>
+      <c r="Q6">
+        <v>0.3948935429833333</v>
+      </c>
+      <c r="R6">
+        <v>3.55404188685</v>
+      </c>
+      <c r="S6">
+        <v>0.08526781894799988</v>
+      </c>
+      <c r="T6">
+        <v>0.08526781894799988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.914094</v>
+      </c>
+      <c r="I7">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J7">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.072121333333333</v>
+      </c>
+      <c r="N7">
+        <v>15.216364</v>
+      </c>
+      <c r="O7">
+        <v>0.7879294335349575</v>
+      </c>
+      <c r="P7">
+        <v>0.7879294335349576</v>
+      </c>
+      <c r="Q7">
+        <v>3.23617233713511</v>
+      </c>
+      <c r="R7">
+        <v>29.125551034216</v>
+      </c>
+      <c r="S7">
+        <v>0.6987740413344983</v>
+      </c>
+      <c r="T7">
+        <v>0.6987740413344983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.914094</v>
+      </c>
+      <c r="I8">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J8">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.01220666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.03662</v>
+      </c>
+      <c r="O8">
+        <v>0.001896246426284896</v>
+      </c>
+      <c r="P8">
+        <v>0.001896246426284896</v>
+      </c>
+      <c r="Q8">
+        <v>0.007788235808888888</v>
+      </c>
+      <c r="R8">
+        <v>0.07009412228</v>
+      </c>
+      <c r="S8">
+        <v>0.00168168331105048</v>
+      </c>
+      <c r="T8">
+        <v>0.00168168331105048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6380313333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.914094</v>
+      </c>
+      <c r="I9">
+        <v>0.8868485064703402</v>
+      </c>
+      <c r="J9">
+        <v>0.8868485064703401</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7340256666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.202077</v>
+      </c>
+      <c r="O9">
+        <v>0.1140273250042099</v>
+      </c>
+      <c r="P9">
+        <v>0.1140273250042099</v>
+      </c>
+      <c r="Q9">
+        <v>0.4683313748042222</v>
+      </c>
+      <c r="R9">
+        <v>4.214982373238</v>
+      </c>
+      <c r="S9">
+        <v>0.1011249628767916</v>
+      </c>
+      <c r="T9">
+        <v>0.1011249628767916</v>
       </c>
     </row>
   </sheetData>
